--- a/data/tender_type_metrics.xlsx
+++ b/data/tender_type_metrics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samarpatel/Desktop/samar/Dunkin/Dunkin-Sales-Summary/data/compiled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samarpatel/Desktop/samar/Dunkin/Dunkin-Sales-Summary/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918193AD-358B-FF43-BF7C-E9E5FC677CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704F3348-950E-7341-ABA2-CBC363B349F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22380" yWindow="7900" windowWidth="26040" windowHeight="14940" xr2:uid="{CCF91C8C-191C-824B-94D4-6695DAE0409C}"/>
+    <workbookView xWindow="6680" yWindow="9240" windowWidth="26040" windowHeight="14940" xr2:uid="{CCF91C8C-191C-824B-94D4-6695DAE0409C}"/>
   </bookViews>
   <sheets>
     <sheet name="tender_type_metrics" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="21">
   <si>
     <t>Store</t>
   </si>
@@ -43,18 +43,12 @@
     <t>Visa</t>
   </si>
   <si>
-    <t>MasterCard</t>
-  </si>
-  <si>
     <t>Amex</t>
   </si>
   <si>
     <t>Gift Card Redeem</t>
   </si>
   <si>
-    <t>Check</t>
-  </si>
-  <si>
     <t>Grub Hub</t>
   </si>
   <si>
@@ -62,6 +56,33 @@
   </si>
   <si>
     <t>Doordash</t>
+  </si>
+  <si>
+    <t>Mastercard</t>
+  </si>
+  <si>
+    <t>Visa Kiosk</t>
+  </si>
+  <si>
+    <t>Clover Go</t>
+  </si>
+  <si>
+    <t>Paxton</t>
+  </si>
+  <si>
+    <t>Mount Joy</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>Lititz</t>
+  </si>
+  <si>
+    <t>Marietta</t>
+  </si>
+  <si>
+    <t>E-Town</t>
   </si>
 </sst>
 </file>
@@ -69,9 +90,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="* \$##,###,##0.00;* \-\$##,###,##0.00"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -216,6 +237,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -516,7 +543,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -559,20 +586,22 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -600,7 +629,6 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Currency" xfId="42" builtinId="4"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -947,15 +975,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C240D489-01EC-C448-8B62-C661650C24E7}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
@@ -984,10 +1012,10 @@
         <v>357993</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3">
-        <v>75.05</v>
+        <v>7</v>
+      </c>
+      <c r="D2" s="4">
+        <v>61.77</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -998,10 +1026,10 @@
         <v>357993</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3">
-        <v>3427.63</v>
+        <v>5</v>
+      </c>
+      <c r="D3" s="4">
+        <v>158.1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1012,10 +1040,10 @@
         <v>357993</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3">
-        <v>698.35</v>
+        <v>12</v>
+      </c>
+      <c r="D4" s="4">
+        <v>632.37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1026,10 +1054,10 @@
         <v>357993</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3">
-        <v>78.459999999999994</v>
+        <v>6</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4269.17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1040,11 +1068,9 @@
         <v>357993</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3">
-        <v>939.38</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -1054,10 +1080,10 @@
         <v>357993</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" s="4">
-        <v>74.97</v>
+        <v>1262.6199999999999</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1068,11 +1094,9 @@
         <v>357993</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="4">
-        <v>55.48</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -1082,10 +1106,10 @@
         <v>357993</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="4">
-        <v>21.12</v>
+        <v>322.32</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1096,11 +1120,832 @@
         <v>357993</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
+        <v>124.31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>357993</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4">
+        <v>75.58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1">
+        <v>310290</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3">
+        <v>49.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>310290</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>310290</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="3">
+        <v>363.94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>310290</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1930.51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>310290</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="4">
-        <v>104.26</v>
-      </c>
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>310290</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3">
+        <v>279.13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1">
+        <v>310290</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1">
+        <v>310290</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3">
+        <v>408.31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1">
+        <v>310290</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3">
+        <v>136.13999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="1">
+        <v>310290</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="3">
+        <v>16.77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1">
+        <v>343939</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="3">
+        <v>37.479999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1">
+        <v>343939</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3">
+        <v>95.31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1">
+        <v>343939</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="3">
+        <v>431.35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="1">
+        <v>343939</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2158.33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1">
+        <v>343939</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="1">
+        <v>343939</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="3">
+        <v>925.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="1">
+        <v>343939</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="1">
+        <v>343939</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="3">
+        <v>157.33000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="1">
+        <v>343939</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="3">
+        <v>75.349999999999994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="1">
+        <v>343939</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="1">
+        <v>358529</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="3">
+        <v>67.09</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="1">
+        <v>358529</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="3">
+        <v>105.54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="1">
+        <v>358529</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="3">
+        <v>664.55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="1">
+        <v>358529</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2535.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="1">
+        <v>358529</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="3">
+        <v>13.43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="1">
+        <v>358529</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="3">
+        <v>695.84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="1">
+        <v>358529</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="1">
+        <v>358529</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="3">
+        <v>310.47000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="1">
+        <v>358529</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="3">
+        <v>64.290000000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="1">
+        <v>358529</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="1">
+        <v>359042</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="3">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="1">
+        <v>359042</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="3">
+        <v>51.16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="1">
+        <v>359042</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="3">
+        <v>568.95000000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="1">
+        <v>359042</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="3">
+        <v>2520.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="1">
+        <v>359042</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="1">
+        <v>359042</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="3">
+        <v>857.31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="1">
+        <v>359042</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="1">
+        <v>359042</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="3">
+        <v>239.86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="1">
+        <v>359042</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="3">
+        <v>51.01</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="1">
+        <v>359042</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="1">
+        <v>363271</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="3">
+        <v>82.37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="1">
+        <v>363271</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="3">
+        <v>106.59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="1">
+        <v>363271</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="3">
+        <v>459.57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="1">
+        <v>363271</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="3">
+        <v>2564.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="1">
+        <v>363271</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="1">
+        <v>363271</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="3">
+        <v>426.99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" s="1">
+        <v>363271</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" s="1">
+        <v>363271</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="3">
+        <v>136.81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="1">
+        <v>363271</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="3">
+        <v>33.01</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="1">
+        <v>363271</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="1">
+        <v>364322</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="3">
+        <v>82.66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" s="1">
+        <v>364322</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="3">
+        <v>214.92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="1">
+        <v>364322</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="3">
+        <v>713.62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="1">
+        <v>364322</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="3">
+        <v>3362.91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" s="1">
+        <v>364322</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" s="1">
+        <v>364322</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="3">
+        <v>845.76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="1">
+        <v>364322</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="1">
+        <v>364322</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" s="1">
+        <v>364322</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="3">
+        <v>18.79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" s="1">
+        <v>364322</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
